--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/99RP281_S43_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/99RP281_S43_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81FE0D9D-8CAB-6443-9666-8E2008BD09E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA6188D-7FD0-0E4C-B1EC-DD040EF22831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="217">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -797,12 +797,54 @@
   <si>
     <t>9RP263.2887:460VCM</t>
   </si>
+  <si>
+    <t>021: Selection Air/Oxygen</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>025: Ratio = Yeast [L] / Wort [hl]</t>
+  </si>
+  <si>
+    <t>027: Calculated mean Temperature to Cellar</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>11: from Cellar: Yeast dosing amount</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -866,8 +908,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,6 +974,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1187,6 +1260,12 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6556,14 +6635,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Function: Massafra -   | Bergamo - 01: SeqRunTime</v>
+        <v>-- Function: Massafra -  SeqRunTime | Bergamo - 01: SeqRunTime</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$3="NULL","",IF(ISBLANK('01 Function Comparison'!$K$3),"",'01 Function Comparison'!$K$3))</f>
-        <v/>
+        <v>SeqRunTime</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -6613,7 +6692,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP281.1073742023SUPPLFX'</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -6623,20 +6702,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$3="NULL","",IF(ISBLANK('01 Function Comparison'!$L$3),"",'01 Function Comparison'!$L$3))</f>
-        <v/>
+        <v>99RP281.1073742023SUPPLFX</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 10: from Cellar: Yeast dosing amount</v>
+        <v>-- Function: Massafra -  11: from Cellar: Yeast dosing amount | Bergamo - 10: from Cellar: Yeast dosing amount</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>11: from Cellar: Yeast dosing amount</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -12439,7 +12518,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12452,7 +12531,7 @@
     <col min="6" max="6" width="12" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46" style="3" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
     <col min="11" max="11" width="47" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="35.1640625" style="4" bestFit="1" customWidth="1"/>
@@ -12558,14 +12637,11 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2">
-        <v>1</v>
+      <c r="J3" s="56" t="s">
+        <v>204</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
@@ -12610,13 +12686,13 @@
         <v>38</v>
       </c>
       <c r="J4" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Value Source'!H2</f>
@@ -12661,13 +12737,13 @@
         <v>44</v>
       </c>
       <c r="J5" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
@@ -12711,14 +12787,11 @@
       <c r="I6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="2">
-        <v>15</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>45</v>
+      <c r="J6" s="58" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
@@ -12762,14 +12835,11 @@
       <c r="I7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="2">
-        <v>17</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>51</v>
+      <c r="J7" s="58" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>206</v>
       </c>
       <c r="N7" s="11">
         <f>'00 Value Source'!H5</f>
@@ -12813,14 +12883,11 @@
       <c r="I8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>25</v>
+      <c r="J8" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
@@ -12864,14 +12931,11 @@
       <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>25</v>
+      <c r="J9" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>60</v>
       </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
@@ -12915,14 +12979,11 @@
       <c r="I10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>25</v>
+      <c r="J10" s="59" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
@@ -12966,14 +13027,11 @@
       <c r="I11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>25</v>
+      <c r="J11" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>66</v>
       </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
@@ -13017,14 +13075,11 @@
       <c r="I12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>25</v>
+      <c r="J12" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -13068,14 +13123,11 @@
       <c r="I13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>25</v>
+      <c r="J13" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>72</v>
       </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
@@ -13107,6 +13159,7 @@
         <f>'00 Value Source'!P12</f>
         <v>NULL</v>
       </c>
+      <c r="K14" s="57"/>
       <c r="N14" s="11">
         <f>'00 Value Source'!H12</f>
         <v>2</v>
@@ -13137,6 +13190,7 @@
         <f>'00 Value Source'!P13</f>
         <v>NULL</v>
       </c>
+      <c r="K15" s="57"/>
       <c r="N15" s="11">
         <f>'00 Value Source'!H13</f>
         <v>3</v>
@@ -18500,7 +18554,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:I27"/>
     </sheetView>
   </sheetViews>
@@ -24824,8 +24878,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24944,6 +24998,15 @@
       <c r="I3" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Function Source'!H1</f>
         <v>1</v>
@@ -24985,6 +25048,12 @@
       </c>
       <c r="I4" s="4" t="s">
         <v>147</v>
+      </c>
+      <c r="J4" s="61" t="s">
+        <v>216</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>215</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
@@ -31567,7 +31636,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H3" sqref="H3:M4"/>
     </sheetView>
   </sheetViews>
@@ -36758,14 +36827,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  Flow slow | Bergamo - 001: Selection Air/Oxygen</v>
+        <v>-- Value: Massafra -  021: Selection Air/Oxygen | Bergamo - 001: Selection Air/Oxygen</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>Flow slow</v>
+        <v>021: Selection Air/Oxygen</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -36815,7 +36884,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP281.536871183SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -36825,20 +36894,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$3="NULL","",IF(ISBLANK('01 Value Comparison'!$L$3),"",'01 Value Comparison'!$L$3))</f>
-        <v>99RP281.536871183SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -  Yeast food basic amount | Bergamo - 007: a - Fermenting tank</v>
+        <v>-- Value: Massafra -  Fermenting Vessel 1 | Bergamo - 007: a - Fermenting tank</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v>Yeast food basic amount</v>
+        <v>Fermenting Vessel 1</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -36888,7 +36957,7 @@
     <row r="11" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="str">
         <f>CONCATENATE(D11,"N'",F11,"'")</f>
-        <v>WHERE _Name = N'99RP281.536873661SUPPLVA'</v>
+        <v>WHERE _Name = N'99RP281.536871528SUPPLVA'</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="30"/>
@@ -36898,20 +36967,20 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$4="NULL","",IF(ISBLANK('01 Value Comparison'!$L$4),"",'01 Value Comparison'!$L$4))</f>
-        <v>99RP281.536873661SUPPLVA</v>
+        <v>99RP281.536871528SUPPLVA</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -  Amount Fermenting Vessel 1 | Bergamo - 008: e - Yeast tank</v>
+        <v>-- Value: Massafra -  Yeast pitching tank | Bergamo - 008: e - Yeast tank</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v>Amount Fermenting Vessel 1</v>
+        <v>Yeast pitching tank</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -36961,7 +37030,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP281.536871532SUPPLVA'</v>
+        <v>WHERE _Name = N'99RP281.536871541SUPPLVA'</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -36971,20 +37040,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$5="NULL","",IF(ISBLANK('01 Value Comparison'!$L$5),"",'01 Value Comparison'!$L$5))</f>
-        <v>99RP281.536871532SUPPLVA</v>
+        <v>99RP281.536871541SUPPLVA</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -  Amount per brew | Bergamo - 015: Ratio = Yeast [L] / Wort [hl]</v>
+        <v>-- Value: Massafra -  025: Ratio = Yeast [L] / Wort [hl] | Bergamo - 015: Ratio = Yeast [L] / Wort [hl]</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v>Amount per brew</v>
+        <v>025: Ratio = Yeast [L] / Wort [hl]</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -37034,7 +37103,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP281.536873663SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -37044,20 +37113,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$6="NULL","",IF(ISBLANK('01 Value Comparison'!$L$6),"",'01 Value Comparison'!$L$6))</f>
-        <v>99RP281.536873663SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -  Yeast pitching tank | Bergamo - 017: Calculated mean Temperature to Cellar</v>
+        <v>-- Value: Massafra -  027: Calculated mean Temperature to Cellar | Bergamo - 017: Calculated mean Temperature to Cellar</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v>Yeast pitching tank</v>
+        <v>027: Calculated mean Temperature to Cellar</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -37107,7 +37176,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP281.536871541SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -37117,20 +37186,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$7="NULL","",IF(ISBLANK('01 Value Comparison'!$L$7),"",'01 Value Comparison'!$L$7))</f>
-        <v>99RP281.536871541SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 028: Volume batch from WHP</v>
+        <v>-- Value: Massafra -  028: Volume batch from WHP | Bergamo - 028: Volume batch from WHP</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>028: Volume batch from WHP</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -37196,14 +37265,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 029: MES/SAP Tracing number</v>
+        <v>-- Value: Massafra -  029: MES/SAP Tracing number | Bergamo - 029: MES/SAP Tracing number</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>029: MES/SAP Tracing number</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -37269,14 +37338,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 035: MES: Time total cooling</v>
+        <v>-- Value: Massafra -  035: MES: Time total cooling | Bergamo - 035: MES: Time total cooling</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>035: MES: Time total cooling</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -37342,14 +37411,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 038: MES UTIF</v>
+        <v>-- Value: Massafra -  038: MES UTIF | Bergamo - 038: MES UTIF</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>038: MES UTIF</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -37415,14 +37484,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 056: Man. Seq brew in tank</v>
+        <v>-- Value: Massafra -  056: Man. Seq brew in tank | Bergamo - 056: Man. Seq brew in tank</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>056: Man. Seq brew in tank</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -37488,14 +37557,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -   | Bergamo - 057: MES time total brewing</v>
+        <v>-- Value: Massafra -  057: MES time total brewing | Bergamo - 057: MES time total brewing</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v/>
+        <v>057: MES time total brewing</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>

--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/99RP281_S43_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/99RP281_S43_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 43 - Wort Transfer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA6188D-7FD0-0E4C-B1EC-DD040EF22831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AB50C7-43FE-2545-BFF0-947B94C2259E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="5440" yWindow="460" windowWidth="25560" windowHeight="20540" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="225">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -798,53 +798,77 @@
     <t>9RP263.2887:460VCM</t>
   </si>
   <si>
-    <t>021: Selection Air/Oxygen</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>025: Ratio = Yeast [L] / Wort [hl]</t>
+    <t>No step (ProP)</t>
   </si>
   <si>
-    <t>027: Calculated mean Temperature to Cellar</t>
+    <t>Srange Category</t>
   </si>
   <si>
-    <t>25</t>
+    <t>21: from Cellar: Yeast dosing amount</t>
   </si>
   <si>
-    <t>27</t>
+    <t>101</t>
   </si>
   <si>
-    <t>28</t>
+    <t>102</t>
   </si>
   <si>
-    <t>29</t>
+    <t>103</t>
   </si>
   <si>
-    <t>35</t>
+    <t>104</t>
   </si>
   <si>
-    <t>38</t>
+    <t>105</t>
   </si>
   <si>
-    <t>56</t>
+    <t>106</t>
   </si>
   <si>
-    <t>57</t>
+    <t>107</t>
   </si>
   <si>
-    <t>11: from Cellar: Yeast dosing amount</t>
+    <t>108</t>
   </si>
   <si>
-    <t>11</t>
+    <t>109</t>
+  </si>
+  <si>
+    <t>101: Selection Air/Oxygen</t>
+  </si>
+  <si>
+    <t>102: Ratio = Yeast [L] / Wort [hl]</t>
+  </si>
+  <si>
+    <t>103: Calculated mean Temperature to Cellar</t>
+  </si>
+  <si>
+    <t>104: Volume batch from WHP</t>
+  </si>
+  <si>
+    <t>105: MES/SAP Tracing number</t>
+  </si>
+  <si>
+    <t>106: MES: Time total cooling</t>
+  </si>
+  <si>
+    <t>107: MES UTIF</t>
+  </si>
+  <si>
+    <t>108: Man. Seq brew in tank</t>
+  </si>
+  <si>
+    <t>109: MES time total brewing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -914,15 +938,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,6 +1009,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,6 +1247,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,12 +1288,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6708,14 +6732,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -  11: from Cellar: Yeast dosing amount | Bergamo - 10: from Cellar: Yeast dosing amount</v>
+        <v>-- Function: Massafra -  21: from Cellar: Yeast dosing amount | Bergamo - 10: from Cellar: Yeast dosing amount</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v>11: from Cellar: Yeast dosing amount</v>
+        <v>21: from Cellar: Yeast dosing amount</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -9093,14 +9117,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Dosing to Propagator ( Dosing to Propagator )</v>
+        <v>-- Operation: Massafra - No step (ProP) (  ) | Bergamo - Dosing to Propagator ( Dosing to Propagator )</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$3="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$3),"",CONCATENATE('01 Operation Comparison'!$N$3," ( ",'01 Operation Comparison'!$O$3," )")))</f>
-        <v/>
+        <v>No step (ProP) (  )</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -9166,14 +9190,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Prerun ( Flow )</v>
+        <v>-- Operation: Massafra - Srange Category (  ) | Bergamo - Prerun ( Flow )</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$4="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$4),"",CONCATENATE('01 Operation Comparison'!$N$4," ( ",'01 Operation Comparison'!$O$4," )")))</f>
-        <v/>
+        <v>Srange Category (  )</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -12517,8 +12541,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12541,28 +12565,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -12637,11 +12661,11 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>203</v>
+      <c r="J3" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>216</v>
       </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
@@ -12787,11 +12811,11 @@
       <c r="I6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="58" t="s">
-        <v>207</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>205</v>
+      <c r="J6" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="K6" s="47" t="s">
+        <v>217</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Value Source'!H4</f>
@@ -12835,11 +12859,11 @@
       <c r="I7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="58" t="s">
-        <v>208</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>206</v>
+      <c r="J7" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>218</v>
       </c>
       <c r="N7" s="11">
         <f>'00 Value Source'!H5</f>
@@ -12883,11 +12907,11 @@
       <c r="I8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="59" t="s">
-        <v>209</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>57</v>
+      <c r="J8" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="K8" s="47" t="s">
+        <v>219</v>
       </c>
       <c r="N8" s="11" t="str">
         <f>'00 Value Source'!H6</f>
@@ -12931,11 +12955,11 @@
       <c r="I9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>60</v>
+      <c r="J9" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="N9" s="11" t="str">
         <f>'00 Value Source'!H7</f>
@@ -12979,11 +13003,11 @@
       <c r="I10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="59" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="57" t="s">
-        <v>63</v>
+      <c r="J10" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>221</v>
       </c>
       <c r="N10" s="11" t="str">
         <f>'00 Value Source'!H8</f>
@@ -13027,11 +13051,11 @@
       <c r="I11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J11" s="59" t="s">
-        <v>212</v>
-      </c>
-      <c r="K11" s="57" t="s">
-        <v>66</v>
+      <c r="J11" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="47" t="s">
+        <v>222</v>
       </c>
       <c r="N11" s="11" t="str">
         <f>'00 Value Source'!H9</f>
@@ -13075,11 +13099,11 @@
       <c r="I12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="59" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="57" t="s">
-        <v>69</v>
+      <c r="J12" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="K12" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="N12" s="11" t="str">
         <f>'00 Value Source'!H10</f>
@@ -13123,11 +13147,11 @@
       <c r="I13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="K13" s="57" t="s">
-        <v>72</v>
+      <c r="J13" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>224</v>
       </c>
       <c r="N13" s="11" t="str">
         <f>'00 Value Source'!H11</f>
@@ -13159,7 +13183,7 @@
         <f>'00 Value Source'!P12</f>
         <v>NULL</v>
       </c>
-      <c r="K14" s="57"/>
+      <c r="K14" s="45"/>
       <c r="N14" s="11">
         <f>'00 Value Source'!H12</f>
         <v>2</v>
@@ -13190,7 +13214,7 @@
         <f>'00 Value Source'!P13</f>
         <v>NULL</v>
       </c>
-      <c r="K15" s="57"/>
+      <c r="K15" s="45"/>
       <c r="N15" s="11">
         <f>'00 Value Source'!H13</f>
         <v>3</v>
@@ -18545,6 +18569,7 @@
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="N1:P1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18578,28 +18603,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -24879,7 +24904,7 @@
   <dimension ref="A1:P404"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24902,28 +24927,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -25049,11 +25074,11 @@
       <c r="I4" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>215</v>
+      <c r="J4" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>206</v>
       </c>
       <c r="N4" s="11">
         <f>'00 Function Source'!H2</f>
@@ -31636,8 +31661,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:M4"/>
+    <sheetView topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31664,32 +31689,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="H1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="R1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="60"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -31790,6 +31815,9 @@
       <c r="M3" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="N3" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="R3" s="11" t="str">
         <f>'00 Operation Source'!C1</f>
         <v>NULL</v>
@@ -31845,6 +31873,9 @@
       </c>
       <c r="M4" s="4" t="s">
         <v>201</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>205</v>
       </c>
       <c r="R4" s="11" t="str">
         <f>'00 Operation Source'!C2</f>
@@ -36827,14 +36858,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  021: Selection Air/Oxygen | Bergamo - 001: Selection Air/Oxygen</v>
+        <v>-- Value: Massafra -  101: Selection Air/Oxygen | Bergamo - 001: Selection Air/Oxygen</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>021: Selection Air/Oxygen</v>
+        <v>101: Selection Air/Oxygen</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -37046,14 +37077,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -  025: Ratio = Yeast [L] / Wort [hl] | Bergamo - 015: Ratio = Yeast [L] / Wort [hl]</v>
+        <v>-- Value: Massafra -  102: Ratio = Yeast [L] / Wort [hl] | Bergamo - 015: Ratio = Yeast [L] / Wort [hl]</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v>025: Ratio = Yeast [L] / Wort [hl]</v>
+        <v>102: Ratio = Yeast [L] / Wort [hl]</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -37119,14 +37150,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -  027: Calculated mean Temperature to Cellar | Bergamo - 017: Calculated mean Temperature to Cellar</v>
+        <v>-- Value: Massafra -  103: Calculated mean Temperature to Cellar | Bergamo - 017: Calculated mean Temperature to Cellar</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v>027: Calculated mean Temperature to Cellar</v>
+        <v>103: Calculated mean Temperature to Cellar</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -37192,14 +37223,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -  028: Volume batch from WHP | Bergamo - 028: Volume batch from WHP</v>
+        <v>-- Value: Massafra -  104: Volume batch from WHP | Bergamo - 028: Volume batch from WHP</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v>028: Volume batch from WHP</v>
+        <v>104: Volume batch from WHP</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -37265,14 +37296,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -  029: MES/SAP Tracing number | Bergamo - 029: MES/SAP Tracing number</v>
+        <v>-- Value: Massafra -  105: MES/SAP Tracing number | Bergamo - 029: MES/SAP Tracing number</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v>029: MES/SAP Tracing number</v>
+        <v>105: MES/SAP Tracing number</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -37338,14 +37369,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -  035: MES: Time total cooling | Bergamo - 035: MES: Time total cooling</v>
+        <v>-- Value: Massafra -  106: MES: Time total cooling | Bergamo - 035: MES: Time total cooling</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v>035: MES: Time total cooling</v>
+        <v>106: MES: Time total cooling</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -37411,14 +37442,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -  038: MES UTIF | Bergamo - 038: MES UTIF</v>
+        <v>-- Value: Massafra -  107: MES UTIF | Bergamo - 038: MES UTIF</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v>038: MES UTIF</v>
+        <v>107: MES UTIF</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -37484,14 +37515,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -  056: Man. Seq brew in tank | Bergamo - 056: Man. Seq brew in tank</v>
+        <v>-- Value: Massafra -  108: Man. Seq brew in tank | Bergamo - 056: Man. Seq brew in tank</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v>056: Man. Seq brew in tank</v>
+        <v>108: Man. Seq brew in tank</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -37557,14 +37588,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Value: Massafra -  057: MES time total brewing | Bergamo - 057: MES time total brewing</v>
+        <v>-- Value: Massafra -  109: MES time total brewing | Bergamo - 057: MES time total brewing</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v>057: MES time total brewing</v>
+        <v>109: MES time total brewing</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>
